--- a/ArticleManage/main_working_folder/output_folders/Data 108 Adsorption characteristics of activated/Data108_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 108 Adsorption characteristics of activated/Data108_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="AC10-24-400" sheetId="1" r:id="rId1"/>
-    <sheet name="AC15-24-400" sheetId="2" r:id="rId4"/>
-    <sheet name="AC5-24-400" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 AC10-24-400  0-1-50-30" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 AC15-24-400  0-1-50-30" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 AC5-24-400  0-1-50-300" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC10-24-400</a:t>
+              <a:t>Izoterma adsorpcji probki AC10-24-400 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC10-24-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 AC10-24-400  0-1-50-30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC10-24-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 AC10-24-400  0-1-50-30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC15-24-400</a:t>
+              <a:t>Izoterma adsorpcji probki AC15-24-400 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC15-24-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 AC15-24-400  0-1-50-30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC15-24-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 AC15-24-400  0-1-50-30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki AC5-24-400</a:t>
+              <a:t>Izoterma adsorpcji probki AC5-24-400 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'AC5-24-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 AC5-24-400  0-1-50-300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AC5-24-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 AC5-24-400  0-1-50-300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 108 Adsorption characteristics of activated/Data108_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 108 Adsorption characteristics of activated/Data108_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,381 +3120,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14</v>
+        <v>0.9505</v>
       </c>
       <c r="B3" s="0">
-        <v>208.1981</v>
+        <v>216.8382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.16</v>
+        <v>0.9021</v>
       </c>
       <c r="B4" s="0">
-        <v>209.033</v>
+        <v>216.2143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.18</v>
+        <v>0.8514</v>
       </c>
       <c r="B5" s="0">
-        <v>209.7399</v>
+        <v>215.5911</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2</v>
+        <v>0.8018</v>
       </c>
       <c r="B6" s="0">
-        <v>210.438</v>
+        <v>215.6069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.22</v>
+        <v>0.7523</v>
       </c>
       <c r="B7" s="0">
-        <v>211.0903</v>
+        <v>215.6228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.24</v>
+        <v>0.7016</v>
       </c>
       <c r="B8" s="0">
-        <v>211.6842</v>
+        <v>215.639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.26</v>
+        <v>0.6521</v>
       </c>
       <c r="B9" s="0">
-        <v>212.1991</v>
+        <v>215.3351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.28</v>
+        <v>0.6025</v>
       </c>
       <c r="B10" s="0">
-        <v>212.6763</v>
+        <v>215.3509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3</v>
+        <v>0.553</v>
       </c>
       <c r="B11" s="0">
-        <v>213.0759</v>
+        <v>214.7274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.32</v>
+        <v>0.5023</v>
       </c>
       <c r="B12" s="0">
-        <v>213.4697</v>
+        <v>214.4239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.34</v>
+        <v>0.4516</v>
       </c>
       <c r="B13" s="0">
-        <v>213.7494</v>
+        <v>213.1613</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.36</v>
+        <v>0.4009</v>
       </c>
       <c r="B14" s="0">
-        <v>214.002</v>
+        <v>212.8579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.38</v>
+        <v>0.4009</v>
       </c>
       <c r="B15" s="0">
-        <v>214.2443</v>
+        <v>212.8579</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.3491</v>
       </c>
       <c r="B16" s="0">
-        <v>214.4943</v>
+        <v>212.8744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.42</v>
+        <v>0.3041</v>
       </c>
       <c r="B17" s="0">
-        <v>214.7127</v>
+        <v>211.9297</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.44</v>
+        <v>0.2523</v>
       </c>
       <c r="B18" s="0">
-        <v>214.9179</v>
+        <v>210.9872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.46</v>
+        <v>0.2005</v>
       </c>
       <c r="B19" s="0">
-        <v>215.1121</v>
+        <v>210.0447</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.48</v>
+        <v>0.1463</v>
       </c>
       <c r="B20" s="0">
-        <v>215.4096</v>
+        <v>208.1439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5</v>
+        <v>0.0012</v>
       </c>
       <c r="B21" s="0">
-        <v>215.7419</v>
+        <v>158.3181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.52</v>
+        <v>0.0023</v>
       </c>
       <c r="B22" s="0">
-        <v>216.0968</v>
+        <v>170.4661</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.54</v>
+        <v>0.0058</v>
       </c>
       <c r="B23" s="0">
-        <v>216.3971</v>
+        <v>176.2195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.56</v>
+        <v>0.0069</v>
       </c>
       <c r="B24" s="0">
-        <v>216.5888</v>
+        <v>181.6539</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.58</v>
+        <v>0.0104</v>
       </c>
       <c r="B25" s="0">
-        <v>216.5991</v>
+        <v>186.7679</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6</v>
+        <v>0.0196</v>
       </c>
       <c r="B26" s="0">
-        <v>216.5132</v>
+        <v>190.9209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.62</v>
+        <v>0.0346</v>
       </c>
       <c r="B27" s="0">
-        <v>216.4389</v>
+        <v>195.3919</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.64</v>
+        <v>0.0484</v>
       </c>
       <c r="B28" s="0">
-        <v>216.4288</v>
+        <v>198.2647</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.66</v>
+        <v>0.0611</v>
       </c>
       <c r="B29" s="0">
-        <v>216.4967</v>
+        <v>200.8182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.68</v>
+        <v>0.1037</v>
       </c>
       <c r="B30" s="0">
-        <v>216.6175</v>
+        <v>205.9196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7</v>
+        <v>0.0899</v>
       </c>
       <c r="B31" s="0">
-        <v>216.7738</v>
+        <v>204.3256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.72</v>
+        <v>0.0737</v>
       </c>
       <c r="B32" s="0">
-        <v>216.9424</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B33" s="0">
-        <v>217.1023</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B34" s="0">
-        <v>217.2308</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B35" s="0">
-        <v>217.3091</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B36" s="0">
-        <v>217.322</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B37" s="0">
-        <v>217.2787</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B38" s="0">
-        <v>217.2177</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B39" s="0">
-        <v>217.1658</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B40" s="0">
-        <v>217.1284</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9101</v>
-      </c>
-      <c r="B41" s="0">
-        <v>217.1708</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9435</v>
-      </c>
-      <c r="B42" s="0">
-        <v>217.1601</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.0035</v>
-      </c>
-      <c r="B43" s="0">
-        <v>172.7036</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0</v>
-      </c>
-      <c r="B44" s="0">
-        <v>159.917</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0046</v>
-      </c>
-      <c r="B45" s="0">
-        <v>179.4168</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0161</v>
-      </c>
-      <c r="B46" s="0">
-        <v>189.963</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0357</v>
-      </c>
-      <c r="B47" s="0">
-        <v>197.6293</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0599</v>
-      </c>
-      <c r="B48" s="0">
-        <v>201.7776</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0887</v>
-      </c>
-      <c r="B49" s="0">
-        <v>206.2441</v>
-      </c>
-    </row>
-    <row r="50"/>
+        <v>203.052</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3503,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3524,429 +3388,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.14</v>
+        <v>0.9505</v>
       </c>
       <c r="B3" s="0">
-        <v>233.0577</v>
+        <v>250.406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.16</v>
+        <v>0.9009</v>
       </c>
       <c r="B4" s="0">
-        <v>234.6968</v>
+        <v>248.5036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.18</v>
+        <v>0.8514</v>
       </c>
       <c r="B5" s="0">
-        <v>235.817</v>
+        <v>248.1998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.2</v>
+        <v>0.8007</v>
       </c>
       <c r="B6" s="0">
-        <v>236.629</v>
+        <v>247.5766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="B7" s="0">
-        <v>237.38</v>
+        <v>246.6337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.24</v>
+        <v>0.7005</v>
       </c>
       <c r="B8" s="0">
-        <v>238.1118</v>
+        <v>246.3299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.26</v>
+        <v>0.6509</v>
       </c>
       <c r="B9" s="0">
-        <v>238.8167</v>
+        <v>246.026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.28</v>
+        <v>0.6014</v>
       </c>
       <c r="B10" s="0">
-        <v>239.4939</v>
+        <v>245.7222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3</v>
+        <v>0.5507</v>
       </c>
       <c r="B11" s="0">
-        <v>240.0837</v>
+        <v>245.4187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.32</v>
+        <v>0.5035</v>
       </c>
       <c r="B12" s="0">
-        <v>240.6268</v>
+        <v>244.7944</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.34</v>
+        <v>0.4516</v>
       </c>
       <c r="B13" s="0">
-        <v>241.2859</v>
+        <v>243.2125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.36</v>
+        <v>0.3986</v>
       </c>
       <c r="B14" s="0">
-        <v>241.7943</v>
+        <v>242.2704</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.38</v>
+        <v>0.3514</v>
       </c>
       <c r="B15" s="0">
-        <v>242.1456</v>
+        <v>241.9658</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.4</v>
+        <v>0.3041</v>
       </c>
       <c r="B16" s="0">
-        <v>242.4588</v>
+        <v>241.3415</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.42</v>
+        <v>0.2569</v>
       </c>
       <c r="B17" s="0">
-        <v>242.7829</v>
+        <v>239.4384</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.44</v>
+        <v>0.2051</v>
       </c>
       <c r="B18" s="0">
-        <v>243.1634</v>
+        <v>236.8974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.46</v>
+        <v>0.1463</v>
       </c>
       <c r="B19" s="0">
-        <v>243.6474</v>
+        <v>234.3587</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.48</v>
+        <v>0.0012</v>
       </c>
       <c r="B20" s="0">
-        <v>244.0378</v>
+        <v>166.9498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5</v>
+        <v>0.0023</v>
       </c>
       <c r="B21" s="0">
-        <v>244.2858</v>
+        <v>183.5735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.52</v>
+        <v>0.0046</v>
       </c>
       <c r="B22" s="0">
-        <v>244.4722</v>
+        <v>190.9257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.54</v>
+        <v>0.0058</v>
       </c>
       <c r="B23" s="0">
-        <v>244.6654</v>
+        <v>195.4011</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.56</v>
+        <v>0.0092</v>
       </c>
       <c r="B24" s="0">
-        <v>244.9527</v>
+        <v>199.556</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.58</v>
+        <v>0.0127</v>
       </c>
       <c r="B25" s="0">
-        <v>245.3791</v>
+        <v>206.2684</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6</v>
+        <v>0.0253</v>
       </c>
       <c r="B26" s="0">
-        <v>245.8036</v>
+        <v>213.937</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.62</v>
+        <v>0.1025</v>
       </c>
       <c r="B27" s="0">
-        <v>246.1202</v>
+        <v>232.1348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.64</v>
+        <v>0.0853</v>
       </c>
       <c r="B28" s="0">
-        <v>246.3135</v>
+        <v>229.5828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.66</v>
+        <v>0.0691</v>
       </c>
       <c r="B29" s="0">
-        <v>246.4654</v>
+        <v>227.0304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.68</v>
+        <v>0.0507</v>
       </c>
       <c r="B30" s="0">
-        <v>246.7307</v>
+        <v>223.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7</v>
+        <v>0.0357</v>
       </c>
       <c r="B31" s="0">
-        <v>247.1634</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B32" s="0">
-        <v>247.5667</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B33" s="0">
-        <v>247.772</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B34" s="0">
-        <v>247.7919</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B35" s="0">
-        <v>247.7186</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B36" s="0">
-        <v>247.7549</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B37" s="0">
-        <v>247.9731</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B38" s="0">
-        <v>248.1826</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B39" s="0">
-        <v>248.2638</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B40" s="0">
-        <v>248.3865</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B41" s="0">
-        <v>248.6553</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B42" s="0">
-        <v>249.0949</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9435</v>
-      </c>
-      <c r="B43" s="0">
-        <v>249.7688</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.1118</v>
-      </c>
-      <c r="B44" s="0">
-        <v>231.4925</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0853</v>
-      </c>
-      <c r="B45" s="0">
-        <v>228.304</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0588</v>
-      </c>
-      <c r="B46" s="0">
-        <v>224.4762</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0438</v>
-      </c>
-      <c r="B47" s="0">
-        <v>219.0462</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0276</v>
-      </c>
-      <c r="B48" s="0">
-        <v>213.2969</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0184</v>
-      </c>
-      <c r="B49" s="0">
-        <v>207.5453</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B50" s="0">
-        <v>199.5556</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0069</v>
-      </c>
-      <c r="B51" s="0">
-        <v>192.5235</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0023</v>
-      </c>
-      <c r="B52" s="0">
-        <v>187.4098</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0012</v>
-      </c>
-      <c r="B53" s="0">
-        <v>180.377</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0</v>
-      </c>
-      <c r="B54" s="0">
-        <v>169.8275</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>-0.0012</v>
-      </c>
-      <c r="B55" s="0">
-        <v>163.7537</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>218.4094</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3955,7 +3627,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3976,429 +3648,197 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.08</v>
+        <v>0.9505</v>
       </c>
       <c r="B3" s="0">
-        <v>92.0223</v>
+        <v>95.6745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1</v>
+        <v>0.9009</v>
       </c>
       <c r="B4" s="0">
-        <v>92.7768</v>
+        <v>95.3706</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.12</v>
+        <v>0.8514</v>
       </c>
       <c r="B5" s="0">
-        <v>93.1138</v>
+        <v>95.7062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.14</v>
+        <v>0.8226</v>
       </c>
       <c r="B6" s="0">
-        <v>93.5064</v>
+        <v>95.7154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.16</v>
+        <v>0.7719</v>
       </c>
       <c r="B7" s="0">
-        <v>93.888</v>
+        <v>95.4119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.18</v>
+        <v>0.7212</v>
       </c>
       <c r="B8" s="0">
-        <v>94.1721</v>
+        <v>95.1084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2</v>
+        <v>0.6717</v>
       </c>
       <c r="B9" s="0">
-        <v>94.2973</v>
+        <v>95.4439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.22</v>
+        <v>0.621</v>
       </c>
       <c r="B10" s="0">
-        <v>94.4417</v>
+        <v>95.1404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.24</v>
+        <v>0.5714</v>
       </c>
       <c r="B11" s="0">
-        <v>94.681</v>
+        <v>95.476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.26</v>
+        <v>0.5035</v>
       </c>
       <c r="B12" s="0">
-        <v>94.9371</v>
+        <v>95.4977</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.28</v>
+        <v>0.4516</v>
       </c>
       <c r="B13" s="0">
-        <v>95.1804</v>
+        <v>95.1946</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3</v>
+        <v>0.4021</v>
       </c>
       <c r="B14" s="0">
-        <v>95.3696</v>
+        <v>94.571</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.32</v>
+        <v>0.3502</v>
       </c>
       <c r="B15" s="0">
-        <v>95.5346</v>
+        <v>94.9073</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.34</v>
+        <v>0.3007</v>
       </c>
       <c r="B16" s="0">
-        <v>95.7473</v>
+        <v>94.6034</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.36</v>
+        <v>0.2523</v>
       </c>
       <c r="B17" s="0">
-        <v>95.6927</v>
+        <v>94.2992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.38</v>
+        <v>0.2005</v>
       </c>
       <c r="B18" s="0">
-        <v>95.5387</v>
+        <v>93.9961</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4</v>
+        <v>0.1486</v>
       </c>
       <c r="B19" s="0">
-        <v>95.4785</v>
+        <v>93.0536</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.42</v>
+        <v>0.0576</v>
       </c>
       <c r="B20" s="0">
-        <v>95.5755</v>
+        <v>90.2055</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.44</v>
+        <v>0.0415</v>
       </c>
       <c r="B21" s="0">
-        <v>95.7093</v>
+        <v>89.2515</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.46</v>
+        <v>0.0253</v>
       </c>
       <c r="B22" s="0">
-        <v>95.7934</v>
+        <v>87.6582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.48</v>
+        <v>0.0127</v>
       </c>
       <c r="B23" s="0">
-        <v>95.8911</v>
+        <v>85.1047</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5</v>
+        <v>0.0046</v>
       </c>
       <c r="B24" s="0">
-        <v>96.1068</v>
+        <v>79.9922</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="B25" s="0">
-        <v>96.269</v>
+        <v>70.7226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.54</v>
+        <v>-0.0012</v>
       </c>
       <c r="B26" s="0">
-        <v>96.3181</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B27" s="0">
-        <v>96.2452</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B28" s="0">
-        <v>96.0202</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B29" s="0">
-        <v>95.8019</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B30" s="0">
-        <v>95.7095</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B31" s="0">
-        <v>95.7111</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B32" s="0">
-        <v>95.7824</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B33" s="0">
-        <v>95.8974</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B34" s="0">
-        <v>96.0284</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B35" s="0">
-        <v>96.0696</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B36" s="0">
-        <v>96.018</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B37" s="0">
-        <v>95.9371</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B38" s="0">
-        <v>95.8683</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B39" s="0">
-        <v>95.8278</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B40" s="0">
-        <v>95.8158</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B41" s="0">
-        <v>95.8208</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B42" s="0">
-        <v>95.8453</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B43" s="0">
-        <v>95.9077</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B44" s="0">
-        <v>96.0041</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B45" s="0">
-        <v>96.1197</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0012</v>
-      </c>
-      <c r="B46" s="0">
-        <v>63.3693</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0012</v>
-      </c>
-      <c r="B47" s="0">
-        <v>67.2056</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.0012</v>
-      </c>
-      <c r="B48" s="0">
-        <v>73.9192</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.0023</v>
-      </c>
-      <c r="B49" s="0">
-        <v>76.796</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.0069</v>
-      </c>
-      <c r="B50" s="0">
-        <v>81.59</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0138</v>
-      </c>
-      <c r="B51" s="0">
-        <v>84.7847</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0242</v>
-      </c>
-      <c r="B52" s="0">
-        <v>87.0192</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.038</v>
-      </c>
-      <c r="B53" s="0">
-        <v>89.2526</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.0507</v>
-      </c>
-      <c r="B54" s="0">
-        <v>90.5274</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9424</v>
-      </c>
-      <c r="B55" s="0">
-        <v>95.6771</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>61.1322</v>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 108 Adsorption characteristics of activated/Data108_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 108 Adsorption characteristics of activated/Data108_all_graphs_excel.xlsx
@@ -5,16 +5,22 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 AC10-24-400  0-1-50-30" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 3 AC15-24-400  0-1-50-30" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 3 AC5-24-400  0-1-50-300" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 AC10-24-400  0&amp;1&amp;50&amp;30" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 AC15-24-400  0&amp;1&amp;50&amp;30" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 AC5-24-400  0&amp;1&amp;50&amp;300" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4 AC15-12-500  0&amp;1&amp;100&amp;4" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 4 AC15-24-500  0&amp;1&amp;100&amp;4" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 4 AC15-8-500  0&amp;1&amp;100&amp;40" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 5 AC15-24-400  0&amp;1&amp;100&amp;4" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 5 AC15-24-450  0&amp;1&amp;100&amp;4" sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 5 AC15-24-500  0&amp;1&amp;100&amp;4" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>AC10-24-400</t>
   </si>
@@ -29,6 +35,18 @@
   </si>
   <si>
     <t>AC5-24-400</t>
+  </si>
+  <si>
+    <t>AC15-12-500</t>
+  </si>
+  <si>
+    <t>AC15-24-500</t>
+  </si>
+  <si>
+    <t>AC15-8-500</t>
+  </si>
+  <si>
+    <t>AC15-24-450</t>
   </si>
 </sst>
 </file>
@@ -164,12 +182,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC10-24-400  0-1-50-30'!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC10-24-400  0&amp;1&amp;50&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC10-24-400  0-1-50-30'!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC10-24-400  0&amp;1&amp;50&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +496,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC15-24-400  0-1-50-30'!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC15-24-400  0&amp;1&amp;50&amp;30'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC15-24-400  0-1-50-30'!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC15-24-400  0&amp;1&amp;50&amp;30'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +810,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 AC5-24-400  0-1-50-300'!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 AC5-24-400  0&amp;1&amp;50&amp;300'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 AC5-24-400  0-1-50-300'!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 AC5-24-400  0&amp;1&amp;50&amp;300'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -883,6 +901,1890 @@
           <c:orientation val="minMax"/>
           <c:max val="300"/>
           <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC15-12-500 z wykresu 'Figure 4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4 AC15-12-500  0&amp;1&amp;100&amp;4'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4 AC15-12-500  0&amp;1&amp;100&amp;4'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC15-24-500 z wykresu 'Figure 4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4 AC15-24-500  0&amp;1&amp;100&amp;4'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4 AC15-24-500  0&amp;1&amp;100&amp;4'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC15-8-500 z wykresu 'Figure 4' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 4 AC15-8-500  0&amp;1&amp;100&amp;40'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 4 AC15-8-500  0&amp;1&amp;100&amp;40'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC15-24-400 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 AC15-24-400  0&amp;1&amp;100&amp;4'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 AC15-24-400  0&amp;1&amp;100&amp;4'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC15-24-450 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 AC15-24-450  0&amp;1&amp;100&amp;4'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 AC15-24-450  0&amp;1&amp;100&amp;4'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Volume of gas adsorbed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+    <a:sp3d/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" kern="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Izoterma adsorpcji probki AC15-24-500 z wykresu 'Figure 5' </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f/>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Figure 5 AC15-24-500  0&amp;1&amp;100&amp;4'!$A$3:$A$70</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Figure 5 AC15-24-500  0&amp;1&amp;100&amp;4'!$B$3:$B$70</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr/>
+                  <a:t>Relative pressure</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr kern="1200" sz="900" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1134,6 +3036,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
@@ -2177,6 +4319,3132 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +8053,216 @@
     <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3843,4 +9321,1004 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9847</v>
+      </c>
+      <c r="B3" s="0">
+        <v>246.9568</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.951</v>
+      </c>
+      <c r="B4" s="0">
+        <v>241.6191</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9017</v>
+      </c>
+      <c r="B5" s="0">
+        <v>241.1847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8518</v>
+      </c>
+      <c r="B6" s="0">
+        <v>240.0822</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8019</v>
+      </c>
+      <c r="B7" s="0">
+        <v>240.5388</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.752</v>
+      </c>
+      <c r="B8" s="0">
+        <v>239.659</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7027</v>
+      </c>
+      <c r="B9" s="0">
+        <v>239.8927</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6509</v>
+      </c>
+      <c r="B10" s="0">
+        <v>239.0134</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6048</v>
+      </c>
+      <c r="B11" s="0">
+        <v>238.8009</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.553</v>
+      </c>
+      <c r="B12" s="0">
+        <v>238.367</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5012</v>
+      </c>
+      <c r="B13" s="0">
+        <v>237.9331</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4513</v>
+      </c>
+      <c r="B14" s="0">
+        <v>237.0534</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.354</v>
+      </c>
+      <c r="B15" s="0">
+        <v>235.516</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3053</v>
+      </c>
+      <c r="B16" s="0">
+        <v>235.0814</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2573</v>
+      </c>
+      <c r="B17" s="0">
+        <v>233.7558</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.1475</v>
+      </c>
+      <c r="B18" s="0">
+        <v>228.8805</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0146</v>
+      </c>
+      <c r="B19" s="0">
+        <v>201.9613</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0089</v>
+      </c>
+      <c r="B20" s="0">
+        <v>195.0584</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0058</v>
+      </c>
+      <c r="B21" s="0">
+        <v>188.6003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0045</v>
+      </c>
+      <c r="B22" s="0">
+        <v>184.5916</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0033</v>
+      </c>
+      <c r="B23" s="0">
+        <v>178.8013</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.0001</v>
+      </c>
+      <c r="B24" s="0">
+        <v>163.8799</v>
+      </c>
+    </row>
+    <row r="25"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9925</v>
+      </c>
+      <c r="B3" s="0">
+        <v>395.7302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9519</v>
+      </c>
+      <c r="B4" s="0">
+        <v>388.1668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.902</v>
+      </c>
+      <c r="B5" s="0">
+        <v>379.0465</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8508</v>
+      </c>
+      <c r="B6" s="0">
+        <v>369.7038</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8009</v>
+      </c>
+      <c r="B7" s="0">
+        <v>360.3608</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7504</v>
+      </c>
+      <c r="B8" s="0">
+        <v>350.7952</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7011</v>
+      </c>
+      <c r="B9" s="0">
+        <v>341.4521</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6518</v>
+      </c>
+      <c r="B10" s="0">
+        <v>332.5544</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6031</v>
+      </c>
+      <c r="B11" s="0">
+        <v>323.6565</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5763</v>
+      </c>
+      <c r="B12" s="0">
+        <v>318.7627</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5213</v>
+      </c>
+      <c r="B13" s="0">
+        <v>309.6436</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4664</v>
+      </c>
+      <c r="B14" s="0">
+        <v>300.079</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4159</v>
+      </c>
+      <c r="B15" s="0">
+        <v>290.7361</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3809</v>
+      </c>
+      <c r="B16" s="0">
+        <v>283.3942</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3279</v>
+      </c>
+      <c r="B17" s="0">
+        <v>274.9428</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2717</v>
+      </c>
+      <c r="B18" s="0">
+        <v>264.0421</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2162</v>
+      </c>
+      <c r="B19" s="0">
+        <v>253.1414</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.1519</v>
+      </c>
+      <c r="B20" s="0">
+        <v>240.2381</v>
+      </c>
+    </row>
+    <row r="21"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9903</v>
+      </c>
+      <c r="B3" s="0">
+        <v>224.0157</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.951</v>
+      </c>
+      <c r="B4" s="0">
+        <v>223.5791</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9023</v>
+      </c>
+      <c r="B5" s="0">
+        <v>223.1445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8518</v>
+      </c>
+      <c r="B6" s="0">
+        <v>222.2649</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.7021</v>
+      </c>
+      <c r="B7" s="0">
+        <v>221.4073</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.6022</v>
+      </c>
+      <c r="B8" s="0">
+        <v>220.316</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.5505</v>
+      </c>
+      <c r="B9" s="0">
+        <v>220.7729</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.5006</v>
+      </c>
+      <c r="B10" s="0">
+        <v>220.7841</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.3521</v>
+      </c>
+      <c r="B11" s="0">
+        <v>218.1445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1462</v>
+      </c>
+      <c r="B12" s="0">
+        <v>212.177</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="B13" s="0">
+        <v>154.7481</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.002</v>
+      </c>
+      <c r="B14" s="0">
+        <v>169.8929</v>
+      </c>
+    </row>
+    <row r="15"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9895</v>
+      </c>
+      <c r="B3" s="0">
+        <v>235.8533</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9539</v>
+      </c>
+      <c r="B4" s="0">
+        <v>232.2605</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9018</v>
+      </c>
+      <c r="B5" s="0">
+        <v>231.3623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8522</v>
+      </c>
+      <c r="B6" s="0">
+        <v>230.6886</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.802</v>
+      </c>
+      <c r="B7" s="0">
+        <v>229.7904</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7518</v>
+      </c>
+      <c r="B8" s="0">
+        <v>229.3413</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7022</v>
+      </c>
+      <c r="B9" s="0">
+        <v>229.1168</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6526</v>
+      </c>
+      <c r="B10" s="0">
+        <v>228.6677</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.6024</v>
+      </c>
+      <c r="B11" s="0">
+        <v>227.994</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5503</v>
+      </c>
+      <c r="B12" s="0">
+        <v>226.8713</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="0">
+        <v>226.6467</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4511</v>
+      </c>
+      <c r="B14" s="0">
+        <v>225.524</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4028</v>
+      </c>
+      <c r="B15" s="0">
+        <v>224.8503</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3532</v>
+      </c>
+      <c r="B16" s="0">
+        <v>223.7275</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3062</v>
+      </c>
+      <c r="B17" s="0">
+        <v>222.6048</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2585</v>
+      </c>
+      <c r="B18" s="0">
+        <v>221.0329</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.146</v>
+      </c>
+      <c r="B19" s="0">
+        <v>216.0928</v>
+      </c>
+    </row>
+    <row r="20"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9921</v>
+      </c>
+      <c r="B3" s="0">
+        <v>250.2246</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9526</v>
+      </c>
+      <c r="B4" s="0">
+        <v>249.3263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9024</v>
+      </c>
+      <c r="B5" s="0">
+        <v>248.4281</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8528</v>
+      </c>
+      <c r="B6" s="0">
+        <v>247.979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8026</v>
+      </c>
+      <c r="B7" s="0">
+        <v>247.5299</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.6036</v>
+      </c>
+      <c r="B8" s="0">
+        <v>245.509</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.5521</v>
+      </c>
+      <c r="B9" s="0">
+        <v>245.2844</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.5006</v>
+      </c>
+      <c r="B10" s="0">
+        <v>244.6108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.4498</v>
+      </c>
+      <c r="B11" s="0">
+        <v>243.2635</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.4015</v>
+      </c>
+      <c r="B12" s="0">
+        <v>242.1407</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3538</v>
+      </c>
+      <c r="B13" s="0">
+        <v>241.6916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3049</v>
+      </c>
+      <c r="B14" s="0">
+        <v>240.3443</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2546</v>
+      </c>
+      <c r="B15" s="0">
+        <v>238.5479</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2044</v>
+      </c>
+      <c r="B16" s="0">
+        <v>236.7515</v>
+      </c>
+    </row>
+    <row r="17"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.9917</v>
+      </c>
+      <c r="B3" s="0">
+        <v>395.2844</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.9498</v>
+      </c>
+      <c r="B4" s="0">
+        <v>387.2006</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.9015</v>
+      </c>
+      <c r="B5" s="0">
+        <v>378.6677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.8538</v>
+      </c>
+      <c r="B6" s="0">
+        <v>369.2365</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.8011</v>
+      </c>
+      <c r="B7" s="0">
+        <v>359.3563</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.7522</v>
+      </c>
+      <c r="B8" s="0">
+        <v>348.5778</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.7001</v>
+      </c>
+      <c r="B9" s="0">
+        <v>340.9431</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.6518</v>
+      </c>
+      <c r="B10" s="0">
+        <v>331.9611</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.5997</v>
+      </c>
+      <c r="B11" s="0">
+        <v>322.5299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.5742</v>
+      </c>
+      <c r="B12" s="0">
+        <v>318.2635</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.5209</v>
+      </c>
+      <c r="B13" s="0">
+        <v>309.0569</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.4713</v>
+      </c>
+      <c r="B14" s="0">
+        <v>299.4012</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.416</v>
+      </c>
+      <c r="B15" s="0">
+        <v>289.7455</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3791</v>
+      </c>
+      <c r="B16" s="0">
+        <v>282.7844</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3277</v>
+      </c>
+      <c r="B17" s="0">
+        <v>274.476</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2717</v>
+      </c>
+      <c r="B18" s="0">
+        <v>263.4731</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.2171</v>
+      </c>
+      <c r="B19" s="0">
+        <v>253.1437</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0062</v>
+      </c>
+      <c r="B20" s="0">
+        <v>184.4311</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.003</v>
+      </c>
+      <c r="B21" s="0">
+        <v>179.491</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B22" s="0">
+        <v>174.1018</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.0018</v>
+      </c>
+      <c r="B23" s="0">
+        <v>161.5269</v>
+      </c>
+    </row>
+    <row r="24"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>